--- a/test/fixtures/files/Epi-X-Format.xlsx
+++ b/test/fixtures/files/Epi-X-Format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703BB858-9726-CC4A-8051-6BB3EBB743A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EE5CD2-4BE9-524B-8087-7141A1F24912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2580" yWindow="2140" windowWidth="28800" windowHeight="13000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,12 +526,6 @@
     <t>(555) 555-0114</t>
   </si>
   <si>
-    <t>(555) 555-0115</t>
-  </si>
-  <si>
-    <t>(555) 555-0116</t>
-  </si>
-  <si>
     <t>(555) 555-0119</t>
   </si>
   <si>
@@ -617,6 +611,12 @@
   </si>
   <si>
     <t>yeah</t>
+  </si>
+  <si>
+    <t>+15555550115</t>
+  </si>
+  <si>
+    <t>+15555550125</t>
   </si>
 </sst>
 </file>
@@ -1445,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1729,10 +1729,10 @@
         <v>43829</v>
       </c>
       <c r="AP2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AQ2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.2">
@@ -1774,7 +1774,7 @@
         <v>76</v>
       </c>
       <c r="S3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="T3" s="5">
         <v>12345</v>
@@ -1806,7 +1806,7 @@
         <v>71</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J4" t="s">
         <v>77</v>
@@ -1851,14 +1851,14 @@
         <v>166</v>
       </c>
       <c r="AD4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AE4" s="6" t="s">
         <v>113</v>
       </c>
       <c r="AK4" s="3"/>
       <c r="AP4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.2">
@@ -1873,7 +1873,7 @@
         <v>1842</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J5" t="s">
         <v>78</v>
@@ -1906,7 +1906,7 @@
         <v>167</v>
       </c>
       <c r="AD5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AE5" s="6" t="s">
         <v>114</v>
@@ -1918,7 +1918,7 @@
         <v>43892</v>
       </c>
       <c r="AQ5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.2">
@@ -1972,13 +1972,16 @@
         <v>158</v>
       </c>
       <c r="W6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="X6" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="AC6" t="s">
-        <v>168</v>
+      <c r="AC6" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="AE6" s="6" t="s">
         <v>115</v>
@@ -1988,7 +1991,7 @@
         <v>121</v>
       </c>
       <c r="AK6" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
@@ -2032,14 +2035,17 @@
       <c r="T7" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AC7" t="s">
-        <v>169</v>
+      <c r="AC7">
+        <v>5555550116</v>
+      </c>
+      <c r="AD7">
+        <v>5555550126</v>
       </c>
       <c r="AE7" s="6" t="s">
         <v>116</v>
       </c>
       <c r="AP7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
@@ -2062,10 +2068,10 @@
         <v>81</v>
       </c>
       <c r="K8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M8" s="3">
         <v>27768</v>
@@ -2084,6 +2090,12 @@
       </c>
       <c r="T8" s="5">
         <v>59321</v>
+      </c>
+      <c r="AC8">
+        <v>15555550117</v>
+      </c>
+      <c r="AD8">
+        <v>15555550127</v>
       </c>
       <c r="AE8" s="6" t="s">
         <v>117</v>
@@ -2096,7 +2108,7 @@
         <v>43895</v>
       </c>
       <c r="AQ8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.2">
@@ -2137,7 +2149,7 @@
         <v>105</v>
       </c>
       <c r="S9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T9" s="5" t="s">
         <v>109</v>
@@ -2158,13 +2170,13 @@
         <v>43960</v>
       </c>
       <c r="K10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L10" t="s">
         <v>123</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N10" t="s">
         <v>60</v>
@@ -2194,10 +2206,10 @@
         <v>161</v>
       </c>
       <c r="AC10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AP10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.2">
@@ -2230,21 +2242,21 @@
         <v>140</v>
       </c>
       <c r="AC11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>176</v>
+      </c>
+      <c r="H12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K12" t="s">
+        <v>179</v>
+      </c>
+      <c r="L12" t="s">
         <v>178</v>
-      </c>
-      <c r="H12" t="s">
-        <v>179</v>
-      </c>
-      <c r="K12" t="s">
-        <v>181</v>
-      </c>
-      <c r="L12" t="s">
-        <v>180</v>
       </c>
       <c r="M12" s="3">
         <v>38582</v>
@@ -2253,16 +2265,16 @@
         <v>60</v>
       </c>
       <c r="Q12" t="s">
+        <v>180</v>
+      </c>
+      <c r="R12" t="s">
+        <v>181</v>
+      </c>
+      <c r="S12" t="s">
         <v>182</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="S12" t="s">
-        <v>184</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2279,7 +2291,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="T10:T11 T7 X4 X6" numberStoredAsText="1"/>
+    <ignoredError sqref="T10:T11 T7 X4 X6 AC6:AD6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/test/fixtures/files/Epi-X-Format.xlsx
+++ b/test/fixtures/files/Epi-X-Format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EE5CD2-4BE9-524B-8087-7141A1F24912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB6CD9C-07FC-C242-94F6-E2831FBE8758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2580" yWindow="2140" windowWidth="28800" windowHeight="13000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1445,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/test/fixtures/files/Epi-X-Format.xlsx
+++ b/test/fixtures/files/Epi-X-Format.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA/SaraAlert/test/fixtures/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aholmes/Developer/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB6CD9C-07FC-C242-94F6-E2831FBE8758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A77CCC4-F18B-F844-9A61-B35B6B9DFEB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2580" yWindow="2140" windowWidth="28800" windowHeight="13000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,12 +394,6 @@
     <t>Domingo54</t>
   </si>
   <si>
-    <t>EX-349212</t>
-  </si>
-  <si>
-    <t>EX-499212</t>
-  </si>
-  <si>
     <t>EX-349233</t>
   </si>
   <si>
@@ -617,6 +611,12 @@
   </si>
   <si>
     <t>+15555550125</t>
+  </si>
+  <si>
+    <t>EX-499211</t>
+  </si>
+  <si>
+    <t>EX-3a9212</t>
   </si>
 </sst>
 </file>
@@ -1445,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -1704,19 +1704,19 @@
         <v>21200</v>
       </c>
       <c r="U2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="V2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="W2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AC2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AE2" s="6" t="s">
         <v>111</v>
@@ -1729,15 +1729,15 @@
         <v>43829</v>
       </c>
       <c r="AP2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AQ2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
@@ -1774,13 +1774,13 @@
         <v>76</v>
       </c>
       <c r="S3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="T3" s="5">
         <v>12345</v>
       </c>
       <c r="AC3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AE3" s="6" t="s">
         <v>112</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -1806,7 +1806,7 @@
         <v>71</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J4" t="s">
         <v>77</v>
@@ -1824,46 +1824,46 @@
         <v>60</v>
       </c>
       <c r="Q4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="R4" t="s">
         <v>101</v>
       </c>
       <c r="S4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="T4" s="5">
         <v>54321</v>
       </c>
       <c r="U4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="V4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AC4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AD4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AE4" s="6" t="s">
         <v>113</v>
       </c>
       <c r="AK4" s="3"/>
       <c r="AP4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -1873,7 +1873,7 @@
         <v>1842</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J5" t="s">
         <v>78</v>
@@ -1891,22 +1891,22 @@
         <v>60</v>
       </c>
       <c r="Q5" t="s">
+        <v>150</v>
+      </c>
+      <c r="R5" t="s">
+        <v>151</v>
+      </c>
+      <c r="S5" t="s">
         <v>152</v>
-      </c>
-      <c r="R5" t="s">
-        <v>153</v>
-      </c>
-      <c r="S5" t="s">
-        <v>154</v>
       </c>
       <c r="T5" s="5" t="s">
         <v>107</v>
       </c>
       <c r="AC5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AD5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AE5" s="6" t="s">
         <v>114</v>
@@ -1918,12 +1918,12 @@
         <v>43892</v>
       </c>
       <c r="AQ5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -1966,22 +1966,22 @@
         <v>108</v>
       </c>
       <c r="U6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="V6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="W6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AE6" s="6" t="s">
         <v>115</v>
@@ -1991,12 +1991,12 @@
         <v>121</v>
       </c>
       <c r="AK6" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -2024,7 +2024,7 @@
         <v>97</v>
       </c>
       <c r="Q7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R7" t="s">
         <v>103</v>
@@ -2033,7 +2033,7 @@
         <v>106</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AC7">
         <v>5555550116</v>
@@ -2045,12 +2045,12 @@
         <v>116</v>
       </c>
       <c r="AP7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -2068,10 +2068,10 @@
         <v>81</v>
       </c>
       <c r="K8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M8" s="3">
         <v>27768</v>
@@ -2108,12 +2108,12 @@
         <v>43895</v>
       </c>
       <c r="AQ8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
         <v>69</v>
@@ -2143,13 +2143,13 @@
         <v>97</v>
       </c>
       <c r="Q9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R9" t="s">
         <v>105</v>
       </c>
       <c r="S9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="T9" s="5" t="s">
         <v>109</v>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C10" s="3"/>
       <c r="E10">
@@ -2170,51 +2170,51 @@
         <v>43960</v>
       </c>
       <c r="K10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L10" t="s">
         <v>123</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N10" t="s">
         <v>60</v>
       </c>
       <c r="Q10" t="s">
+        <v>135</v>
+      </c>
+      <c r="R10" t="s">
+        <v>136</v>
+      </c>
+      <c r="S10" t="s">
         <v>137</v>
-      </c>
-      <c r="R10" t="s">
-        <v>138</v>
-      </c>
-      <c r="S10" t="s">
-        <v>139</v>
       </c>
       <c r="T10" s="5" t="s">
         <v>110</v>
       </c>
       <c r="U10" t="s">
+        <v>155</v>
+      </c>
+      <c r="V10" t="s">
         <v>157</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
+        <v>158</v>
+      </c>
+      <c r="X10" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="W10" t="s">
-        <v>160</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="AC10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AP10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I11" s="3"/>
       <c r="K11" t="s">
@@ -2230,33 +2230,33 @@
         <v>97</v>
       </c>
       <c r="Q11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AC11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" t="s">
+        <v>175</v>
+      </c>
+      <c r="K12" t="s">
+        <v>177</v>
+      </c>
+      <c r="L12" t="s">
         <v>176</v>
-      </c>
-      <c r="H12" t="s">
-        <v>177</v>
-      </c>
-      <c r="K12" t="s">
-        <v>179</v>
-      </c>
-      <c r="L12" t="s">
-        <v>178</v>
       </c>
       <c r="M12" s="3">
         <v>38582</v>
@@ -2265,16 +2265,16 @@
         <v>60</v>
       </c>
       <c r="Q12" t="s">
+        <v>178</v>
+      </c>
+      <c r="R12" t="s">
+        <v>179</v>
+      </c>
+      <c r="S12" t="s">
         <v>180</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="S12" t="s">
-        <v>182</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/test/fixtures/files/Epi-X-Format.xlsx
+++ b/test/fixtures/files/Epi-X-Format.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aholmes/Developer/SaraAlert/test/fixtures/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A77CCC4-F18B-F844-9A61-B35B6B9DFEB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ED9AB9-8A75-834C-AFBC-BB734C401983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2580" yWindow="2140" windowWidth="28800" windowHeight="13000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="200">
   <si>
     <t>DGMQ ID</t>
   </si>
@@ -617,6 +617,9 @@
   </si>
   <si>
     <t>EX-3a9212</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1449,7 @@
   <dimension ref="A1:BC12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2021,7 +2024,7 @@
         <v>36331</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
       <c r="Q7" t="s">
         <v>139</v>
@@ -2138,9 +2141,6 @@
       </c>
       <c r="M9" s="3">
         <v>20142</v>
-      </c>
-      <c r="N9" t="s">
-        <v>97</v>
       </c>
       <c r="Q9" t="s">
         <v>160</v>

--- a/test/fixtures/files/Epi-X-Format.xlsx
+++ b/test/fixtures/files/Epi-X-Format.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA/SaraAlert/test/fixtures/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kfagan/Documents/Projects/CDC/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ED9AB9-8A75-834C-AFBC-BB734C401983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073F08AA-064C-334F-9C5A-EF3F05C629C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2580" yWindow="2140" windowWidth="28800" windowHeight="13000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="199">
   <si>
     <t>DGMQ ID</t>
   </si>
@@ -577,15 +577,9 @@
     <t>Vermont</t>
   </si>
   <si>
-    <t>2019-11-19</t>
-  </si>
-  <si>
     <t>2020-01-06</t>
   </si>
   <si>
-    <t>2019-12-31</t>
-  </si>
-  <si>
     <t>1965-09-08</t>
   </si>
   <si>
@@ -620,6 +614,9 @@
   </si>
   <si>
     <t>U</t>
+  </si>
+  <si>
+    <t>2020-01-01</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1446,7 @@
   <dimension ref="A1:BC12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1668,7 +1665,7 @@
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -1729,18 +1726,18 @@
         <v>55</v>
       </c>
       <c r="AK2" s="3">
-        <v>43829</v>
+        <v>43983</v>
       </c>
       <c r="AP2" t="s">
         <v>170</v>
       </c>
       <c r="AQ2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
@@ -1809,7 +1806,7 @@
         <v>71</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J4" t="s">
         <v>77</v>
@@ -1861,7 +1858,7 @@
       </c>
       <c r="AK4" s="3"/>
       <c r="AP4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.2">
@@ -1876,7 +1873,7 @@
         <v>1842</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="J5" t="s">
         <v>78</v>
@@ -1921,7 +1918,7 @@
         <v>43892</v>
       </c>
       <c r="AQ5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.2">
@@ -1939,7 +1936,7 @@
         <v>72</v>
       </c>
       <c r="I6" s="3">
-        <v>43788</v>
+        <v>44141</v>
       </c>
       <c r="J6" t="s">
         <v>79</v>
@@ -1981,10 +1978,10 @@
         <v>154</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AE6" s="6" t="s">
         <v>115</v>
@@ -1993,8 +1990,8 @@
       <c r="AJ6" t="s">
         <v>121</v>
       </c>
-      <c r="AK6" s="5" t="s">
-        <v>185</v>
+      <c r="AK6" s="3">
+        <v>43831</v>
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
@@ -2009,7 +2006,7 @@
         <v>1242</v>
       </c>
       <c r="I7" s="3">
-        <v>43828</v>
+        <v>43894</v>
       </c>
       <c r="J7" t="s">
         <v>80</v>
@@ -2024,7 +2021,7 @@
         <v>36331</v>
       </c>
       <c r="N7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q7" t="s">
         <v>139</v>
@@ -2048,7 +2045,7 @@
         <v>116</v>
       </c>
       <c r="AP7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
@@ -2111,7 +2108,7 @@
         <v>43895</v>
       </c>
       <c r="AQ8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.2">
@@ -2176,7 +2173,7 @@
         <v>123</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N10" t="s">
         <v>60</v>
@@ -2209,7 +2206,7 @@
         <v>166</v>
       </c>
       <c r="AP10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.2">
